--- a/biology/Botanique/Sarriette_acinos/Sarriette_acinos.xlsx
+++ b/biology/Botanique/Sarriette_acinos/Sarriette_acinos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acinos arvensis · Pouliot des champs, Calament des champs
-Clinopodium acinos (parfois nommé Acinos arvensis), aussi appelé Pouliot des champs[1], Calament acinos[2], Calament des champs[2], Sariette des champs, Sariette acinos, Petit basilic sauvage, Thym basilic ou Clinopode champêtre[1], est une espèce de plante herbacée de la famille des Lamiacées.
+Clinopodium acinos (parfois nommé Acinos arvensis), aussi appelé Pouliot des champs, Calament acinos, Calament des champs, Sariette des champs, Sariette acinos, Petit basilic sauvage, Thym basilic ou Clinopode champêtre, est une espèce de plante herbacée de la famille des Lamiacées.
 </t>
         </is>
       </c>
@@ -514,11 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-Cette plante annuelle ou bisannuelle, mesure de 10 à 45 cm de hauteur[1]. Les feuilles, de forme lancéolée, sont velues ; leur bordure peut être dentelée ou entière et leur extrémité est plus ou moins pointue.
-Appareil reproducteur
-Les fleurs sont roses ou mauves, parfois tirant vers le violet et portant souvent un peu de blanc sur la lèvre inférieure. Comme chez la plupart des Lamiaceae, elles sont disposées en cyme très raccourcie de 3 à 8 fleurs[2] formant un faux-verticille autour de la tige. Leur corolle mesure de 10 à 18 mm[1]. Les bractées sont au nombre de cinq, trois d'un côté et deux de l'autre, ces dernières étant plus longues.
-Le fruit est un akène qui reste enveloppé dans le calice velu. Ce dernier, un peu jaunâtre ou olivâtre, est soudé en tube strié mais comporte 5 extrémités libres en forme de longues dents étroites. Les dimensions d'un akène d'Acinos arvensis est en moyenne de 3,5 mm de longueur pour 1,2 mm de largeur[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante annuelle ou bisannuelle, mesure de 10 à 45 cm de hauteur. Les feuilles, de forme lancéolée, sont velues ; leur bordure peut être dentelée ou entière et leur extrémité est plus ou moins pointue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sarriette_acinos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarriette_acinos</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les fleurs sont roses ou mauves, parfois tirant vers le violet et portant souvent un peu de blanc sur la lèvre inférieure. Comme chez la plupart des Lamiaceae, elles sont disposées en cyme très raccourcie de 3 à 8 fleurs formant un faux-verticille autour de la tige. Leur corolle mesure de 10 à 18 mm. Les bractées sont au nombre de cinq, trois d'un côté et deux de l'autre, ces dernières étant plus longues.
+Le fruit est un akène qui reste enveloppé dans le calice velu. Ce dernier, un peu jaunâtre ou olivâtre, est soudé en tube strié mais comporte 5 extrémités libres en forme de longues dents étroites. Les dimensions d'un akène d'Acinos arvensis est en moyenne de 3,5 mm de longueur pour 1,2 mm de largeur.
 Période de floraison : juin-septembre
 Inflorescence : glomérules
 Sexualité : hermaphrodite
@@ -528,39 +580,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sarriette_acinos</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sarriette_acinos</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Habitat et répartition</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habitat type : tonsures annuelles basophiles, aéromésohydriques, médioeuropéennes, subméditerranéeo-subatlantiques[3].
-Cette espèce a une aire de répartition qui s'étend de l'Europe de l'Ouest jusqu'en Iran[4] ; on la trouve aussi au Maroc[2].
-On la trouve notamment dans les endroits incultes.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -582,23 +601,140 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habitat type : tonsures annuelles basophiles, aéromésohydriques, médioeuropéennes, subméditerranéeo-subatlantiques.
+Cette espèce a une aire de répartition qui s'étend de l'Europe de l'Ouest jusqu'en Iran ; on la trouve aussi au Maroc.
+On la trouve notamment dans les endroits incultes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sarriette_acinos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarriette_acinos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Synonymes
-Cette espèce connait de nombreux synonymes, autant nomenclaturaux que taxonomiques. Selon Kew Gardens[5] :
-Synonymes nomenclaturaux (= homotypiques)
-Thymus acinos L. (basionyme)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce connait de nombreux synonymes, autant nomenclaturaux que taxonomiques. Selon Kew Gardens :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sarriette_acinos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarriette_acinos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Synonymes nomenclaturaux (= homotypiques)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Thymus acinos L. (basionyme)
 Acinos acinos (L.) Huth
 Calamintha acinos (L.) Clairv.
 Faucibarba acinos (L.) Dulac
 Melissa acinos (L.) Benth.
 Satureja acinos (L.) Scheele
-Thymus concinnus Salisb.
-Synonymes taxonomiques (= hétérotypiques)
-Acinos acuminatus Friv.
+Thymus concinnus Salisb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sarriette_acinos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarriette_acinos</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Synonymes taxonomiques (= hétérotypiques)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Acinos acuminatus Friv.
 Acinos arvensis (Schur) Dandy - Nom parfois considéré comme valide.
 Acinos arvensis subsp. villosus (Pers.) Soják
 Acinos arvensis subsp. eglandulosus (Klokov) Tzvelev
